--- a/biology/Médecine/Adénite/Adénite.xlsx
+++ b/biology/Médecine/Adénite/Adénite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nite</t>
+          <t>Adénite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une adénite est une inflammation d'un ou plusieurs nœuds lymphatiques (ou ganglions). On parle aussi d'adénopathie : maladie d'un nœud lymphatique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nite</t>
+          <t>Adénite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine infectieuse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors d'une infection d'un tissu ou d'un organe, les systèmes de défense immunitaire provoquent une augmentation de volume des nœuds lymphatiques de voisinage (adénopathie). 
 Le nœud lymphatique peut à son tour être infecté et devenir douloureux et purulent. C'est l'adénite. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nite</t>
+          <t>Adénite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Origine tumorale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tumeurs malignes ou des processus hématologiques malins (maladie de Hodgkin…) provoquent une augmentation du nœud lymphatique atteint.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nite</t>
+          <t>Adénite</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Origine auto-immunitaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut rencontrer des adénites lors de maladies auto-immunes.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nite</t>
+          <t>Adénite</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Origine mécanique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le frottement répété d'un nœud lymphatique peut entraîner une réaction inflammatoire bénigne mais douloureuse du nœud lymphatique stimulé ; c'est le cas de patients anxieux qui palpent plusieurs fois par jour et pendant plusieurs jours des nœuds lymphatiques superficiels.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nite</t>
+          <t>Adénite</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Adénite aiguë</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une réaction ganglionnaire inflammatoire due à une inoculation septique à distance.
 Peut être en rapport avec une lymphangite tronculaire.
@@ -654,7 +676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nite</t>
+          <t>Adénite</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -672,7 +694,9 @@
           <t>Adénite suppurée</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Adénite accompagnée des quatre signes généraux de l'inflammation : Rubor (rougeur), Tumor (tuméfaction), Dolor (douleur), Calor (chaleur). Du pus commence à se créer au centre de l'adénite (qui doit être évacué s'il est assez important pour provoquer un ballottement : adénite collectée). 
 Ce type d'adénite peut évoluer vers l'adénophlégmon. 
@@ -686,7 +710,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nite</t>
+          <t>Adénite</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -704,7 +728,9 @@
           <t>Adénophlégmon</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Atteinte plus grave car elle concerne toute la chaîne ganglionnaire : les signes généraux de l'inflammation sont retrouvés sur toute la zone concernée, ce qui constitue un véritable placard inflammatoire. 
  Portail de la médecine                     </t>
